--- a/classfiers/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
+++ b/classfiers/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9815668202764977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.971830985915493</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.965034965034965</v>
+        <v>0.9906976744186046</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9978619762392824</v>
+        <v>0.9983028058806676</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9953271028037384</v>
+        <v>0.9815668202764977</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9976580796252927</v>
+        <v>0.9906976744186046</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999338755537923</v>
+        <v>0.9995150873944764</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9508928571428571</v>
+        <v>0.9102564102564102</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9748283752860412</v>
+        <v>0.953020134228188</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9971125658489277</v>
+        <v>0.996010491745465</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9551569506726457</v>
+        <v>0.8791666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9770642201834863</v>
+        <v>0.9315673289183222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9964954043509885</v>
+        <v>0.9745861711741497</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9681818181818181</v>
+        <v>0.8765432098765432</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9838337182448036</v>
+        <v>0.9342105263157895</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993828385020609</v>
+        <v>0.9881416826467412</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9655784124268785</v>
+        <v>0.9258199854705232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9943661971830986</v>
+        <v>0.9981220657276996</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9796838716749179</v>
+        <v>0.9600386676599018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981573320990105</v>
+        <v>0.9913112477683</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
+++ b/classfiers/nano/MLP/nearmiss/nano-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9815668202764977</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9845360824742269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9906976744186046</v>
+        <v>0.9870801033591732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9983028058806676</v>
+        <v>0.9980869380380486</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9815668202764977</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9906976744186046</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995150873944764</v>
+        <v>0.996341007424817</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9102564102564102</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.953020134228188</v>
+        <v>0.9193154034229829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.996010491745465</v>
+        <v>0.9794081512739704</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8791666666666667</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9315673289183222</v>
+        <v>0.9458128078817735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9745861711741497</v>
+        <v>0.9884354468244219</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8765432098765432</v>
+        <v>0.7461538461538462</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.8546255506607929</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9881416826467412</v>
+        <v>0.9545964424977298</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9258199854705232</v>
+        <v>0.8971830327661786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9981220657276996</v>
+        <v>0.9844826665242241</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9600386676599018</v>
+        <v>0.9361854259146856</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9913112477683</v>
+        <v>0.9833735972117976</v>
       </c>
     </row>
   </sheetData>
